--- a/Assets/SaveData/ExcelFiles/PrefabInfo.xlsx
+++ b/Assets/SaveData/ExcelFiles/PrefabInfo.xlsx
@@ -4,7 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="EnemyStatus" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="WallStatus" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="GunDefaultStatus" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="WallStatus" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -29,6 +30,9 @@
     <t>hp</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>atk</t>
   </si>
   <si>
@@ -38,16 +42,58 @@
     <t>Cube_Magma</t>
   </si>
   <si>
-    <t>Meerkat</t>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>fireMode</t>
+  </si>
+  <si>
+    <t>skillMode</t>
+  </si>
+  <si>
+    <t>msBetweenShots</t>
+  </si>
+  <si>
+    <t>muzzleVelocity</t>
+  </si>
+  <si>
+    <t>maxRange</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>knonkBackForce</t>
+  </si>
+  <si>
+    <t>directionNumber</t>
+  </si>
+  <si>
+    <t>projectileMaxAngle</t>
+  </si>
+  <si>
+    <t>LinearGun</t>
+  </si>
+  <si>
+    <t>AUTO</t>
   </si>
   <si>
     <t>Cube_Lava</t>
   </si>
   <si>
-    <t>Panther</t>
-  </si>
-  <si>
-    <t>Hedgehog</t>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>ShotGun</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>EnergySphereGun</t>
+  </si>
+  <si>
+    <t>Grizzly</t>
   </si>
   <si>
     <t>Griffon</t>
@@ -67,16 +113,16 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF222222"/>
-    </font>
+    <font/>
     <font>
       <sz val="10.0"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF222222"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -105,13 +151,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -127,6 +173,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -362,18 +412,18 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>101.0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>50.0</v>
@@ -381,7 +431,7 @@
       <c r="D3" s="1">
         <v>5.0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>100.0</v>
       </c>
     </row>
@@ -389,8 +439,8 @@
       <c r="A4" s="1">
         <v>102.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>100.0</v>
@@ -406,16 +456,16 @@
       <c r="A5" s="1">
         <v>103.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>200.0</v>
       </c>
-      <c r="D5" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E5" s="1">
         <v>200.0</v>
       </c>
     </row>
@@ -424,7 +474,7 @@
         <v>201.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>3000.0</v>
@@ -442,6 +492,184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>300.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -471,16 +699,16 @@
       <c r="A3" s="1">
         <v>101.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>102.0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SaveData/ExcelFiles/PrefabInfo.xlsx
+++ b/Assets/SaveData/ExcelFiles/PrefabInfo.xlsx
@@ -15,10 +15,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>float</t>
   </si>
   <si>
     <t>key</t>
@@ -27,70 +30,67 @@
     <t>name</t>
   </si>
   <si>
+    <t>Wall_Cube_Magma</t>
+  </si>
+  <si>
+    <t>fireMode</t>
+  </si>
+  <si>
+    <t>skillMode</t>
+  </si>
+  <si>
+    <t>msBetweenShots</t>
+  </si>
+  <si>
+    <t>muzzleVelocity</t>
+  </si>
+  <si>
+    <t>maxRange</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>knonkBackForce</t>
+  </si>
+  <si>
+    <t>directionNumber</t>
+  </si>
+  <si>
+    <t>projectileMaxAngle</t>
+  </si>
+  <si>
+    <t>LinearGun</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>ShotGun</t>
+  </si>
+  <si>
+    <t>Wall_Cube_Lava</t>
+  </si>
+  <si>
+    <t>EnergySphereGun</t>
+  </si>
+  <si>
     <t>hp</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>atk</t>
   </si>
   <si>
     <t>dropParts</t>
   </si>
   <si>
-    <t>Cube_Magma</t>
-  </si>
-  <si>
     <t>Spider</t>
   </si>
   <si>
-    <t>fireMode</t>
-  </si>
-  <si>
-    <t>skillMode</t>
-  </si>
-  <si>
-    <t>msBetweenShots</t>
-  </si>
-  <si>
-    <t>muzzleVelocity</t>
-  </si>
-  <si>
-    <t>maxRange</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>knonkBackForce</t>
-  </si>
-  <si>
-    <t>directionNumber</t>
-  </si>
-  <si>
-    <t>projectileMaxAngle</t>
-  </si>
-  <si>
-    <t>LinearGun</t>
-  </si>
-  <si>
-    <t>AUTO</t>
-  </si>
-  <si>
-    <t>Cube_Lava</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>ShotGun</t>
-  </si>
-  <si>
     <t>Penguin</t>
-  </si>
-  <si>
-    <t>EnergySphereGun</t>
   </si>
   <si>
     <t>Grizzly</t>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -114,11 +114,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF222222"/>
@@ -144,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -155,9 +150,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -386,44 +378,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>101.0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>50.0</v>
@@ -440,7 +432,7 @@
         <v>102.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>100.0</v>
@@ -448,8 +440,8 @@
       <c r="D4" s="1">
         <v>10.0</v>
       </c>
-      <c r="E4" s="1">
-        <v>200.0</v>
+      <c r="E4" s="2">
+        <v>100.0</v>
       </c>
     </row>
     <row r="5">
@@ -465,8 +457,8 @@
       <c r="D5" s="2">
         <v>50.0</v>
       </c>
-      <c r="E5" s="1">
-        <v>200.0</v>
+      <c r="E5" s="2">
+        <v>150.0</v>
       </c>
     </row>
     <row r="6">
@@ -506,77 +498,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <v>300.0</v>
@@ -602,13 +594,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>700.0</v>
@@ -634,13 +626,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>1000.0</v>
@@ -681,18 +673,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -700,15 +692,15 @@
         <v>101.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>102.0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
